--- a/hybridOfActitime/data/ActiTimeTestData.xlsx
+++ b/hybridOfActitime/data/ActiTimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validcrerds" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
